--- a/INTLINE/data/193/ABS/87520076.xlsx
+++ b/INTLINE/data/193/ABS/87520076.xlsx
@@ -12,44 +12,44 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A83791682R">Data1!$B$1:$B$10,Data1!$B$11:$B$255</definedName>
-    <definedName name="A83791682R_Data">Data1!$B$11:$B$255</definedName>
-    <definedName name="A83791682R_Latest">Data1!$B$255</definedName>
-    <definedName name="A83791898A">Data1!$C$1:$C$10,Data1!$C$11:$C$255</definedName>
-    <definedName name="A83791898A_Data">Data1!$C$11:$C$255</definedName>
-    <definedName name="A83791898A_Latest">Data1!$C$255</definedName>
-    <definedName name="A83792978V">Data1!$F$1:$F$10,Data1!$F$47:$F$255</definedName>
-    <definedName name="A83792978V_Data">Data1!$F$47:$F$255</definedName>
-    <definedName name="A83792978V_Latest">Data1!$F$255</definedName>
-    <definedName name="A83793194R">Data1!$G$1:$G$10,Data1!$G$47:$G$255</definedName>
-    <definedName name="A83793194R_Data">Data1!$G$47:$G$255</definedName>
-    <definedName name="A83793194R_Latest">Data1!$G$255</definedName>
-    <definedName name="A83794274J">Data1!$J$1:$J$10,Data1!$J$11:$J$255</definedName>
-    <definedName name="A83794274J_Data">Data1!$J$11:$J$255</definedName>
-    <definedName name="A83794274J_Latest">Data1!$J$255</definedName>
-    <definedName name="A83794490A">Data1!$K$1:$K$10,Data1!$K$11:$K$255</definedName>
-    <definedName name="A83794490A_Data">Data1!$K$11:$K$255</definedName>
-    <definedName name="A83794490A_Latest">Data1!$K$255</definedName>
-    <definedName name="A83799386T">Data1!$E$1:$E$10,Data1!$E$107:$E$255</definedName>
-    <definedName name="A83799386T_Data">Data1!$E$107:$E$255</definedName>
-    <definedName name="A83799386T_Latest">Data1!$E$255</definedName>
-    <definedName name="A83799602X">Data1!$D$1:$D$10,Data1!$D$107:$D$255</definedName>
-    <definedName name="A83799602X_Data">Data1!$D$107:$D$255</definedName>
-    <definedName name="A83799602X_Latest">Data1!$D$255</definedName>
-    <definedName name="A83800682T">Data1!$I$1:$I$10,Data1!$I$107:$I$255</definedName>
-    <definedName name="A83800682T_Data">Data1!$I$107:$I$255</definedName>
-    <definedName name="A83800682T_Latest">Data1!$I$255</definedName>
-    <definedName name="A83800898C">Data1!$H$1:$H$10,Data1!$H$107:$H$255</definedName>
-    <definedName name="A83800898C_Data">Data1!$H$107:$H$255</definedName>
-    <definedName name="A83800898C_Latest">Data1!$H$255</definedName>
-    <definedName name="A83801978W">Data1!$M$1:$M$10,Data1!$M$107:$M$255</definedName>
-    <definedName name="A83801978W_Data">Data1!$M$107:$M$255</definedName>
-    <definedName name="A83801978W_Latest">Data1!$M$255</definedName>
-    <definedName name="A83802194T">Data1!$L$1:$L$10,Data1!$L$107:$L$255</definedName>
-    <definedName name="A83802194T_Data">Data1!$L$107:$L$255</definedName>
-    <definedName name="A83802194T_Latest">Data1!$L$255</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$255</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$255</definedName>
+    <definedName name="A83791682R">Data1!$B$1:$B$10,Data1!$B$11:$B$256</definedName>
+    <definedName name="A83791682R_Data">Data1!$B$11:$B$256</definedName>
+    <definedName name="A83791682R_Latest">Data1!$B$256</definedName>
+    <definedName name="A83791898A">Data1!$C$1:$C$10,Data1!$C$11:$C$256</definedName>
+    <definedName name="A83791898A_Data">Data1!$C$11:$C$256</definedName>
+    <definedName name="A83791898A_Latest">Data1!$C$256</definedName>
+    <definedName name="A83792978V">Data1!$F$1:$F$10,Data1!$F$47:$F$256</definedName>
+    <definedName name="A83792978V_Data">Data1!$F$47:$F$256</definedName>
+    <definedName name="A83792978V_Latest">Data1!$F$256</definedName>
+    <definedName name="A83793194R">Data1!$G$1:$G$10,Data1!$G$47:$G$256</definedName>
+    <definedName name="A83793194R_Data">Data1!$G$47:$G$256</definedName>
+    <definedName name="A83793194R_Latest">Data1!$G$256</definedName>
+    <definedName name="A83794274J">Data1!$J$1:$J$10,Data1!$J$11:$J$256</definedName>
+    <definedName name="A83794274J_Data">Data1!$J$11:$J$256</definedName>
+    <definedName name="A83794274J_Latest">Data1!$J$256</definedName>
+    <definedName name="A83794490A">Data1!$K$1:$K$10,Data1!$K$11:$K$256</definedName>
+    <definedName name="A83794490A_Data">Data1!$K$11:$K$256</definedName>
+    <definedName name="A83794490A_Latest">Data1!$K$256</definedName>
+    <definedName name="A83799386T">Data1!$E$1:$E$10,Data1!$E$107:$E$256</definedName>
+    <definedName name="A83799386T_Data">Data1!$E$107:$E$256</definedName>
+    <definedName name="A83799386T_Latest">Data1!$E$256</definedName>
+    <definedName name="A83799602X">Data1!$D$1:$D$10,Data1!$D$107:$D$256</definedName>
+    <definedName name="A83799602X_Data">Data1!$D$107:$D$256</definedName>
+    <definedName name="A83799602X_Latest">Data1!$D$256</definedName>
+    <definedName name="A83800682T">Data1!$I$1:$I$10,Data1!$I$107:$I$256</definedName>
+    <definedName name="A83800682T_Data">Data1!$I$107:$I$256</definedName>
+    <definedName name="A83800682T_Latest">Data1!$I$256</definedName>
+    <definedName name="A83800898C">Data1!$H$1:$H$10,Data1!$H$107:$H$256</definedName>
+    <definedName name="A83800898C_Data">Data1!$H$107:$H$256</definedName>
+    <definedName name="A83800898C_Latest">Data1!$H$256</definedName>
+    <definedName name="A83801978W">Data1!$M$1:$M$10,Data1!$M$107:$M$256</definedName>
+    <definedName name="A83801978W_Data">Data1!$M$107:$M$256</definedName>
+    <definedName name="A83801978W_Latest">Data1!$M$256</definedName>
+    <definedName name="A83802194T">Data1!$L$1:$L$10,Data1!$L$107:$L$256</definedName>
+    <definedName name="A83802194T_Data">Data1!$L$107:$L$256</definedName>
+    <definedName name="A83802194T_Latest">Data1!$L$256</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$256</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$256</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -417,45 +417,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H200" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H218" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H219" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -601,7 +562,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1268,10 @@
         <v>22160</v>
       </c>
       <c r="G12" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>21</v>
@@ -1339,10 +1300,10 @@
         <v>22160</v>
       </c>
       <c r="G13" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -1371,10 +1332,10 @@
         <v>30926</v>
       </c>
       <c r="G14" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>21</v>
@@ -1403,10 +1364,10 @@
         <v>30926</v>
       </c>
       <c r="G15" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>21</v>
@@ -1435,10 +1396,10 @@
         <v>25447</v>
       </c>
       <c r="G16" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>21</v>
@@ -1467,10 +1428,10 @@
         <v>25447</v>
       </c>
       <c r="G17" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>21</v>
@@ -1499,10 +1460,10 @@
         <v>30926</v>
       </c>
       <c r="G18" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>21</v>
@@ -1531,10 +1492,10 @@
         <v>30926</v>
       </c>
       <c r="G19" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>21</v>
@@ -1563,10 +1524,10 @@
         <v>22160</v>
       </c>
       <c r="G20" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>21</v>
@@ -1595,10 +1556,10 @@
         <v>22160</v>
       </c>
       <c r="G21" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="10">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>21</v>
@@ -1627,10 +1588,10 @@
         <v>30926</v>
       </c>
       <c r="G22" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>21</v>
@@ -1659,10 +1620,10 @@
         <v>30926</v>
       </c>
       <c r="G23" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>21</v>
@@ -1709,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2012,40 +1973,40 @@
         <v>18</v>
       </c>
       <c r="B8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2053,40 +2014,40 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K9" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10195,19 +10156,19 @@
         <v>44440</v>
       </c>
       <c r="B255" s="8">
-        <v>97319</v>
+        <v>97359</v>
       </c>
       <c r="C255" s="8">
-        <v>123862</v>
+        <v>126193</v>
       </c>
       <c r="D255" s="8">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="E255" s="8">
-        <v>222027</v>
+        <v>224407</v>
       </c>
       <c r="F255" s="8">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G255" s="8">
         <v>1983</v>
@@ -10219,16 +10180,57 @@
         <v>3099</v>
       </c>
       <c r="J255" s="8">
-        <v>98405</v>
+        <v>98446</v>
       </c>
       <c r="K255" s="8">
-        <v>125846</v>
+        <v>128176</v>
       </c>
       <c r="L255" s="8">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="M255" s="8">
-        <v>225125</v>
+        <v>227507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B256" s="8">
+        <v>99853</v>
+      </c>
+      <c r="C256" s="8">
+        <v>127653</v>
+      </c>
+      <c r="D256" s="8">
+        <v>604</v>
+      </c>
+      <c r="E256" s="8">
+        <v>228110</v>
+      </c>
+      <c r="F256" s="8">
+        <v>1169</v>
+      </c>
+      <c r="G256" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H256" s="8">
+        <v>38</v>
+      </c>
+      <c r="I256" s="8">
+        <v>3230</v>
+      </c>
+      <c r="J256" s="8">
+        <v>101022</v>
+      </c>
+      <c r="K256" s="8">
+        <v>129678</v>
+      </c>
+      <c r="L256" s="8">
+        <v>642</v>
+      </c>
+      <c r="M256" s="8">
+        <v>231341</v>
       </c>
     </row>
   </sheetData>
